--- a/medicine/Pharmacie/2C-T-2/2C-T-2.xlsx
+++ b/medicine/Pharmacie/2C-T-2/2C-T-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 2C-T-2 est un hallucinogène psychédélique synthétisé pour la première fois par Alexander Shulgin[2].
+Le 2C-T-2 est un hallucinogène psychédélique synthétisé pour la première fois par Alexander Shulgin.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa structure est proche de celle de la mescaline.
 </t>
@@ -543,7 +557,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-T-2 n'étant pas un produit très répandu, peu de recherches ont été effectuées. On ne connaît que peu sa toxicité et sa pharmacologie.
 Le potentiel létal du 2C-T-2 peut être, à haute dose et selon le mode d'administration, similaire aux autres phényléthylamines de la famille 2C-T. Voir 2C-T-7.
@@ -575,11 +591,48 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets sont proches de ceux du 2C-T-7[3], durent de 8  à   15 heures et peuvent être très puissants et déstabilisants[4].
-Effets recherchés
-Illusions sensorielles ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets sont proches de ceux du 2C-T-7, durent de 8  à   15 heures et peuvent être très puissants et déstabilisants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2C-T-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2C-T-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Illusions sensorielles ;
 Visions colorées ;
 Sensations d'énergie, de bien-être ;
 Sensation d'empathie ;
